--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DE4515F-FD60-470A-AE45-0E0F63FE8D6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F27BDE-301F-4864-9E08-953DF649B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="28800" windowHeight="17740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -879,7 +879,7 @@
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1:B2"/>
+      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1167,7 +1167,7 @@
         <v>30</v>
       </c>
       <c r="F12" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1311,7 +1311,7 @@
         <v>38</v>
       </c>
       <c r="F18" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" s="11" t="str">
         <f t="shared" si="2"/>
@@ -1335,7 +1335,7 @@
         <v>38</v>
       </c>
       <c r="F19" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" s="11" t="str">
         <f t="shared" si="2"/>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68F27BDE-301F-4864-9E08-953DF649B6ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DA143-DA5E-4981-A5A9-85D7103B8813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
   <si>
     <t>Year</t>
   </si>
@@ -475,16 +475,7 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="15">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -574,12 +565,13 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,9 +594,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -873,13 +865,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1342,30 +1334,6 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
-        <v>2024</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G20" s="11" t="str">
-        <f t="shared" ref="G20" si="3">IF(OR(AND(F20&gt;1,F20&lt;&gt;"-")),"Can exchange","")</f>
-        <v/>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1373,7 +1341,7 @@
     <mergeCell ref="C1:D1"/>
   </mergeCells>
   <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
-    <cfRule type="containsText" dxfId="14" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1390,7 +1358,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="containsText" dxfId="13" priority="25" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
@@ -1405,7 +1373,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F14">
-    <cfRule type="containsText" dxfId="12" priority="23" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
@@ -1420,7 +1388,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F10">
-    <cfRule type="containsText" dxfId="11" priority="21" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
@@ -1435,7 +1403,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
@@ -1450,7 +1418,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="containsText" dxfId="9" priority="17" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
@@ -1465,7 +1433,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F6">
-    <cfRule type="containsText" dxfId="8" priority="15" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
@@ -1480,7 +1448,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4">
-    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
@@ -1495,7 +1463,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F16:F17">
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
@@ -1509,23 +1477,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F20">
-    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F20))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="6">
-      <colorScale>
-        <cfvo type="formula" val="0"/>
-        <cfvo type="formula" val="1"/>
-        <cfvo type="formula" val="10"/>
-        <color rgb="FFFF9F9F"/>
-        <color rgb="FFD1E0B2"/>
-        <color rgb="FF00B050"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F18">
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1542,7 +1495,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{683DA143-DA5E-4981-A5A9-85D7103B8813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE0162-38FD-4E6F-A51E-BFA0C6302B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="26900" windowHeight="16750" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
     <author>Пользователь Windows</author>
   </authors>
   <commentList>
-    <comment ref="E2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -51,11 +51,11 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Münze Österreich (Vienna mint)</t>
+          <t>An tIonad Airgeadra (Irish Mint)</t>
         </r>
       </text>
     </comment>
-    <comment ref="F2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="G2" authorId="0" shapeId="0" xr:uid="{6C562639-E8EE-4303-A719-CD68E2D8C1A0}">
       <text>
         <r>
           <rPr>
@@ -66,7 +66,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Münze Österreich (Vienna mint)</t>
+          <t>An tIonad Airgeadra (Irish Mint)</t>
         </r>
       </text>
     </comment>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -89,12 +89,6 @@
     <t>2€</t>
   </si>
   <si>
-    <t>Subtype_1</t>
-  </si>
-  <si>
-    <t>Subtype_2</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
@@ -195,6 +189,30 @@
   </si>
   <si>
     <t>Subject</t>
+  </si>
+  <si>
+    <t>Subtype_1#Series</t>
+  </si>
+  <si>
+    <t>Subtype_2#Mint_Symbol</t>
+  </si>
+  <si>
+    <t>Subtype_3#Map_of_Europe</t>
+  </si>
+  <si>
+    <t>Treaty of Rome</t>
+  </si>
+  <si>
+    <t>10 Years of EMU</t>
+  </si>
+  <si>
+    <t>10th Anniversary - Euro Coins and Banknotes</t>
+  </si>
+  <si>
+    <t>European Union flag</t>
+  </si>
+  <si>
+    <t>Erasmus Programme</t>
   </si>
 </sst>
 </file>
@@ -297,7 +315,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -325,28 +343,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -390,6 +386,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -419,7 +424,7 @@
     <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -454,19 +459,19 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -865,471 +870,519 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="7" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
     <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.7265625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="24.81640625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="12.453125" style="13" customWidth="1"/>
-    <col min="6" max="6" width="3.81640625" style="13" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="14.26953125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.1796875" style="1"/>
+    <col min="3" max="5" width="24.90625" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="3.81640625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="13.7265625" style="13" customWidth="1"/>
+    <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="26"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="G1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="25"/>
       <c r="B2" s="25"/>
       <c r="C2" s="5" t="s">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="7">
         <v>2007</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D3" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="10">
+        <v>41</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" s="10">
         <v>1</v>
       </c>
-      <c r="G3" s="11" t="str">
-        <f t="shared" ref="G3:G15" si="0">IF(OR(AND(F3&gt;1,F3&lt;&gt;"-")),"Can exchange","")</f>
+      <c r="H3" s="11" t="str">
+        <f t="shared" ref="H3:H15" si="0">IF(OR(AND(G3&gt;1,G3&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="7">
         <v>2008</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="7">
         <v>2009</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="10">
+        <v>42</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="10">
         <v>0</v>
       </c>
-      <c r="G5" s="11" t="str">
+      <c r="H5" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="7">
         <v>2010</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="7">
         <v>2011</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="7">
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="10">
+        <v>7</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="10">
         <v>1</v>
       </c>
-      <c r="G8" s="11" t="str">
+      <c r="H8" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I8" s="2"/>
+    </row>
+    <row r="9" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="7">
         <v>2013</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D9" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E9" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G9" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H9" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I9" s="2"/>
+    </row>
+    <row r="10" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="7">
         <v>2014</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D10" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="F10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="I10" s="2"/>
+    </row>
+    <row r="11" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="7">
         <v>2015</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="10">
+        <v>44</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="10">
         <v>1</v>
       </c>
-      <c r="G11" s="11" t="str">
+      <c r="H11" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="7">
         <v>2016</v>
       </c>
       <c r="B12" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="10">
         <v>1</v>
       </c>
-      <c r="G12" s="11" t="str">
+      <c r="H12" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="7">
         <v>2017</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E13" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G13" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="7">
         <v>2018</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="11" t="str">
+        <v>4</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="11" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="7">
         <v>2019</v>
       </c>
       <c r="B15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="10">
+      <c r="F15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G15" s="10">
         <v>6</v>
       </c>
-      <c r="G15" s="11" t="str">
+      <c r="H15" s="11" t="str">
         <f t="shared" si="0"/>
         <v>Can exchange</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="7">
         <v>2020</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="11" t="str">
-        <f t="shared" ref="G16" si="1">IF(OR(AND(F16&gt;1,F16&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16" s="11" t="str">
+        <f t="shared" ref="H16" si="1">IF(OR(AND(G16&gt;1,G16&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="7">
         <v>2021</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D17" s="12" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="G17" s="11" t="str">
-        <f t="shared" ref="G17:G19" si="2">IF(OR(AND(F17&gt;1,F17&lt;&gt;"-")),"Can exchange","")</f>
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" s="11" t="str">
+        <f t="shared" ref="H17:H19" si="2">IF(OR(AND(G17&gt;1,G17&lt;&gt;"-")),"Can exchange","")</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="7">
         <v>2022</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="10">
+      <c r="G18" s="10">
         <v>1</v>
       </c>
-      <c r="G18" s="11" t="str">
+      <c r="H18" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="7">
         <v>2023</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="10">
+      <c r="C19" s="23"/>
+      <c r="D19" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G19" s="10">
         <v>1</v>
       </c>
-      <c r="G19" s="11" t="str">
+      <c r="H19" s="11" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
@@ -1338,14 +1391,14 @@
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C1:E1"/>
   </mergeCells>
-  <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
+  <conditionalFormatting sqref="G3 G15 G11:G12 G8 G5">
     <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F3))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F3 F15 F11:F12 F8 F5">
+  <conditionalFormatting sqref="G3 G15 G11:G12 G8 G5">
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1357,9 +1410,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F13">
+  <conditionalFormatting sqref="G13">
     <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F13))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -1372,9 +1425,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F14">
+  <conditionalFormatting sqref="G14">
     <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F14))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -1387,9 +1440,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F10">
+  <conditionalFormatting sqref="G10">
     <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F10))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -1402,9 +1455,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F9">
+  <conditionalFormatting sqref="G9">
     <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F9))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -1417,9 +1470,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="G7">
     <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F7))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -1432,9 +1485,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F6">
+  <conditionalFormatting sqref="G6">
     <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F6))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -1447,9 +1500,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4">
+  <conditionalFormatting sqref="G4">
     <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F4))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -1462,9 +1515,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F16:F17">
+  <conditionalFormatting sqref="G16:G17">
     <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F16))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="12">
       <colorScale>
@@ -1477,12 +1530,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="G18">
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F18))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F18">
+  <conditionalFormatting sqref="G18">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1494,12 +1547,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G19">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(F19))))</formula>
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1522,7 +1575,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1534,13 +1587,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1548,10 +1601,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C2" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1559,10 +1612,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1570,10 +1623,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1581,10 +1634,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1592,10 +1645,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
@@ -1603,10 +1656,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="21" t="s">
         <v>22</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50BE0162-38FD-4E6F-A51E-BFA0C6302B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD6C3FB-12E0-4C14-A4B6-D1C136245C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="46">
   <si>
     <t>Year</t>
   </si>
@@ -480,7 +480,24 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Обычный 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="15">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -569,15 +586,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -599,9 +607,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="12" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -870,13 +878,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F12" sqref="F12"/>
+      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1387,6 +1395,33 @@
         <v/>
       </c>
     </row>
+    <row r="20" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="7">
+        <v>2024</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" s="11" t="str">
+        <f t="shared" ref="H20" si="3">IF(OR(AND(G20&gt;1,G20&lt;&gt;"-")),"Can exchange","")</f>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="A1:A2"/>
@@ -1394,11 +1429,26 @@
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G15 G11:G12 G8 G5">
-    <cfRule type="containsText" dxfId="10" priority="27" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="14" priority="29" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G15 G11:G12 G8 G5">
+  <conditionalFormatting sqref="G15 G3 G11:G12 G8 G5">
+    <cfRule type="colorScale" priority="30">
+      <colorScale>
+        <cfvo type="formula" val="0"/>
+        <cfvo type="formula" val="1"/>
+        <cfvo type="formula" val="10"/>
+        <color rgb="FFFF9F9F"/>
+        <color rgb="FFD1E0B2"/>
+        <color rgb="FF00B050"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G13">
+    <cfRule type="containsText" dxfId="13" priority="27" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="28">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1410,9 +1460,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="9" priority="25" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G13))))</formula>
+  <conditionalFormatting sqref="G14">
+    <cfRule type="containsText" dxfId="12" priority="25" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="26">
       <colorScale>
@@ -1425,9 +1475,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="8" priority="23" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G14))))</formula>
+  <conditionalFormatting sqref="G10">
+    <cfRule type="containsText" dxfId="11" priority="23" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="24">
       <colorScale>
@@ -1440,9 +1490,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="7" priority="21" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G10))))</formula>
+  <conditionalFormatting sqref="G9">
+    <cfRule type="containsText" dxfId="10" priority="21" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="22">
       <colorScale>
@@ -1455,9 +1505,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="6" priority="19" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G9))))</formula>
+  <conditionalFormatting sqref="G7">
+    <cfRule type="containsText" dxfId="9" priority="19" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="20">
       <colorScale>
@@ -1470,9 +1520,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="5" priority="17" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G7))))</formula>
+  <conditionalFormatting sqref="G6">
+    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="18">
       <colorScale>
@@ -1485,9 +1535,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="4" priority="15" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G6))))</formula>
+  <conditionalFormatting sqref="G4">
+    <cfRule type="containsText" dxfId="7" priority="15" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="16">
       <colorScale>
@@ -1500,9 +1550,9 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="3" priority="13" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G4))))</formula>
+  <conditionalFormatting sqref="G16:G17">
+    <cfRule type="containsText" dxfId="6" priority="13" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="14">
       <colorScale>
@@ -1515,11 +1565,13 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G16:G17">
-    <cfRule type="containsText" dxfId="2" priority="11" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G16))))</formula>
-    </cfRule>
-    <cfRule type="colorScale" priority="12">
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="5" priority="5" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="formula" val="0"/>
         <cfvo type="formula" val="1"/>
@@ -1530,12 +1582,12 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G18))))</formula>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="*-">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G18">
+  <conditionalFormatting sqref="G19">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1547,12 +1599,10 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+  <conditionalFormatting sqref="G20">
     <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
-      <formula>NOT(ISERROR(SEARCH(("*-"),(G19))))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G19">
+      <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
+    </cfRule>
     <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="formula" val="0"/>

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CD6C3FB-12E0-4C14-A4B6-D1C136245C3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F67E90-CFDC-47C4-8468-1D0B6FF8414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="1110" windowWidth="28720" windowHeight="19550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2€" sheetId="1" r:id="rId1"/>
@@ -482,14 +482,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF9BE5FF"/>
-          <bgColor rgb="FF9BE5FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -497,6 +489,14 @@
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF9BE5FF"/>
+          <bgColor rgb="FF9BE5FF"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -607,9 +607,9 @@
     <filterColumn colId="2" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="2" dataCellStyle="Гиперссылка"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="№" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Link" dataDxfId="1" dataCellStyle="Гиперссылка"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Description (single table, table set, mintage, prices):" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="0" showColumnStripes="0"/>
 </table>
@@ -884,7 +884,7 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -1013,7 +1013,7 @@
         <v>25</v>
       </c>
       <c r="G5" s="10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="11" t="str">
         <f t="shared" si="0"/>
@@ -1433,7 +1433,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G15 G3 G11:G12 G8 G5">
+  <conditionalFormatting sqref="G3 G15 G11:G12 G8 G5">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
@@ -1600,7 +1600,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G20">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="*-">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="*-">
       <formula>NOT(ISERROR(SEARCH(("*-"),(G20))))</formula>
     </cfRule>
     <cfRule type="colorScale" priority="2">

--- a/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
+++ b/Collections/EURO/Ireland/#EURO#Ireland#Commemorative#[2007-present]#UNC%varieties.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lord_Alexator\Documents\CoinCollection\Collections\EURO\Ireland\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F67E90-CFDC-47C4-8468-1D0B6FF8414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF52E57A-60F6-4E3F-9079-A9842F814996}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="2€" sheetId="1" r:id="rId1"/>
     <sheet name="Links" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'2€'!$B$2:$F$2</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -194,9 +197,6 @@
     <t>Subtype_1#Series</t>
   </si>
   <si>
-    <t>Subtype_2#Mint_Symbol</t>
-  </si>
-  <si>
     <t>Subtype_3#Map_of_Europe</t>
   </si>
   <si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Erasmus Programme</t>
+  </si>
+  <si>
+    <t>Subtype_2#Special_marks_1</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -461,6 +464,9 @@
     </xf>
     <xf numFmtId="3" fontId="2" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -884,33 +890,31 @@
       <pane xSplit="8" ySplit="2" topLeftCell="I3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomRight" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="13" customWidth="1"/>
-    <col min="2" max="2" width="48.7265625" style="13" customWidth="1"/>
-    <col min="3" max="5" width="24.90625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="13" customWidth="1"/>
-    <col min="7" max="7" width="3.81640625" style="13" customWidth="1"/>
-    <col min="8" max="8" width="13.7265625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="5.6328125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="50.6328125" style="13" customWidth="1"/>
+    <col min="3" max="5" width="33.6328125" style="13" customWidth="1"/>
+    <col min="6" max="6" width="12.6328125" style="13" customWidth="1"/>
+    <col min="7" max="7" width="3.6328125" style="13" customWidth="1"/>
+    <col min="8" max="8" width="12.6328125" style="13" customWidth="1"/>
     <col min="9" max="9" width="14.26953125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="26" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="28"/>
       <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
@@ -920,16 +924,18 @@
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="24" t="s">
+        <v>37</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>38</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>39</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>40</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>23</v>
@@ -947,7 +953,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D3" s="23" t="s">
         <v>32</v>
@@ -1001,7 +1007,7 @@
         <v>6</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D5" s="23" t="s">
         <v>32</v>
@@ -1079,7 +1085,7 @@
         <v>2012</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="23" t="s">
         <v>7</v>
@@ -1166,7 +1172,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>32</v>
@@ -1351,7 +1357,7 @@
         <v>34</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D18" s="23" t="s">
         <v>32</v>
@@ -1423,9 +1429,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <autoFilter ref="B2:F2" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:E1"/>
   </mergeCells>
   <conditionalFormatting sqref="G3 G15 G11:G12 G8 G5">
@@ -1433,7 +1439,7 @@
       <formula>NOT(ISERROR(SEARCH(("*-"),(G3))))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3 G15 G11:G12 G8 G5">
+  <conditionalFormatting sqref="G15 G3 G11:G12 G8 G5">
     <cfRule type="colorScale" priority="30">
       <colorScale>
         <cfvo type="formula" val="0"/>
